--- a/data/trans_media/IQ28_T-Habitat-trans_media.xlsx
+++ b/data/trans_media/IQ28_T-Habitat-trans_media.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -554,27 +567,42 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>2015</t>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
         </is>
       </c>
     </row>
@@ -587,11 +615,14 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -611,22 +642,37 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
+          <t>134,55</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>136,8</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>137,51</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>143,5</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
         <is>
           <t>138,85</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
+      <c r="J4" s="2" t="inlineStr">
         <is>
           <t>137,51</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>138,75</t>
         </is>
       </c>
     </row>
@@ -639,39 +685,54 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>128,71; 152,74</t>
+          <t>126,99; 152,62</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>130,44; 147,29</t>
+          <t>130,56; 147,85</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>127,24; 144,99</t>
+          <t>114,06; 149,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>132,03; 142,3</t>
+          <t>128,17; 145,28</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>130,9; 145,83</t>
+          <t>131,85; 143,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>133,03; 143,01</t>
+          <t>130,26; 156,67</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>131,53; 146,96</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>132,71; 142,62</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>126,23; 148,31</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -691,22 +752,37 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
+          <t>141,69</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>128,25</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>134,12</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>134,78</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>129,91</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
+      <c r="J6" s="2" t="inlineStr">
         <is>
           <t>133,41</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>138,81</t>
         </is>
       </c>
     </row>
@@ -719,39 +795,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>127,24; 135,85</t>
+          <t>127,19; 136,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>128,3; 137,13</t>
+          <t>128,39; 136,97</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>123,89; 132,15</t>
+          <t>135,52; 147,5</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>130,15; 138,06</t>
+          <t>124,05; 132,56</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>126,96; 132,93</t>
+          <t>130,13; 138,09</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>130,66; 136,34</t>
+          <t>128,2; 140,91</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>126,93; 132,62</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>130,45; 136,58</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>134,42; 143,24</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -771,22 +862,37 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
+          <t>139,21</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>128,5</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>132,77</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>136,69</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
         <is>
           <t>128,72</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
+      <c r="J8" s="2" t="inlineStr">
         <is>
           <t>132,55</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>138,22</t>
         </is>
       </c>
     </row>
@@ -799,39 +905,54 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>125,72; 132,0</t>
+          <t>125,95; 131,9</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>129,39; 135,39</t>
+          <t>129,28; 135,2</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>125,82; 131,38</t>
+          <t>135,07; 143,65</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>129,77; 135,52</t>
+          <t>125,64; 131,27</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>126,84; 130,85</t>
+          <t>129,91; 135,79</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>130,44; 134,52</t>
+          <t>132,2; 140,85</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>126,57; 130,88</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>130,45; 134,65</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>135,26; 141,6</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -851,22 +972,37 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
+          <t>140,86</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>128,32</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>130,55</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>141,16</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
         <is>
           <t>128,07</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
+      <c r="J10" s="2" t="inlineStr">
         <is>
           <t>130,82</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>141,0</t>
         </is>
       </c>
     </row>
@@ -879,32 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>124,38; 131,68</t>
+          <t>124,35; 131,47</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>128,02; 134,3</t>
+          <t>127,86; 134,58</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>124,79; 131,66</t>
+          <t>135,45; 145,8</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>126,91; 133,85</t>
+          <t>124,54; 131,46</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>125,42; 130,43</t>
+          <t>127,44; 133,85</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>128,66; 133,17</t>
+          <t>134,55; 149,04</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>125,52; 130,58</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>128,57; 133,21</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>137,03; 145,91</t>
         </is>
       </c>
     </row>
@@ -931,22 +1082,37 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
+          <t>141,64</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>130,27</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>130,98</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>135,69</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
         <is>
           <t>130,9</t>
         </is>
       </c>
-      <c r="H12" s="2" t="inlineStr">
+      <c r="J12" s="2" t="inlineStr">
         <is>
           <t>131,43</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>138,55</t>
         </is>
       </c>
     </row>
@@ -959,32 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>128,2; 134,95</t>
+          <t>128,1; 135,09</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>128,7; 135,36</t>
+          <t>128,27; 135,54</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>126,75; 133,41</t>
+          <t>136,58; 146,46</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>127,68; 133,9</t>
+          <t>126,74; 133,48</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>128,7; 133,22</t>
+          <t>127,88; 133,89</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>128,92; 133,62</t>
+          <t>130,24; 140,35</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>128,37; 133,19</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>129,14; 133,8</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>134,66; 142,13</t>
         </is>
       </c>
     </row>
@@ -1011,22 +1192,37 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
+          <t>140,48</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>129,2</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
+      <c r="G14" s="2" t="inlineStr">
         <is>
           <t>132,08</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>137,38</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
         <is>
           <t>129,73</t>
         </is>
       </c>
-      <c r="H14" s="2" t="inlineStr">
+      <c r="J14" s="2" t="inlineStr">
         <is>
           <t>132,11</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>139,08</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1235,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>128,61; 132,16</t>
+          <t>128,57; 131,91</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>130,46; 133,82</t>
+          <t>130,39; 133,73</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>127,34; 130,81</t>
+          <t>138,12; 143,2</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>130,53; 133,73</t>
+          <t>127,61; 130,99</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>128,6; 130,98</t>
+          <t>130,42; 133,61</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>130,79; 133,21</t>
+          <t>134,52; 140,51</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>128,48; 130,95</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>131,01; 133,34</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>137,35; 141,1</t>
         </is>
       </c>
     </row>
@@ -1077,12 +1288,12 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
